--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223176.722828738</v>
+        <v>4294828.515388786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7224034.318661705</v>
+        <v>7128926.794513971</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>144.5425776078364</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.8504658884255</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>27.75921992324372</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>27.05951636829814</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>177.2037132681409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>66.49439089594706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>145.0450872985375</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>318.864652897744</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.9736586744964</v>
       </c>
       <c r="W10" t="n">
-        <v>72.59495661421178</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274061</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.26009267756245</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>203.5330926723469</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>220.3866928557993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>18.46423243228393</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>21.12238231029274</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,13 +2526,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.3632011761919</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>127.9032618964203</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522968</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857183</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692865</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329072</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373707</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378956</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463146</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227414939</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689369</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593966</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>158.4459063413341</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415232</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>157.0171567692668</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689361</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898724</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857176</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692858</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329065</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789553</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346314</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415221</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>204.1291651532065</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522968</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857183</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692865</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329072</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373707</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378956</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463146</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415228</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689369</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.0820101120908</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>79.37675471252261</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1182.361274360975</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>771.3753695713672</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>353.411561469554</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2492.249630524863</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2492.249630524863</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.98259790444902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>81.98259790444902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>81.98259790444902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>81.98259790444902</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>263.6310627346887</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>234.7418026417376</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1369.416431066818</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1369.416431066818</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1011.150732460067</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>625.362479861823</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>618.4169791126195</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>200.4531710108064</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>200.4531710108064</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2198.886095354873</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2198.886095354873</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>1369.416431066818</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3838260558018</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3838260558018</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,46 +5032,46 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5078,13 +5080,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5227,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>986.8862794544777</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.0937003109476</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,19 +5533,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5552,13 +5554,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347401</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5795,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.007103038344</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>675.007103038344</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8904636260082</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9773700436151</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>230.0874225457048</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.007103038344</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.6251570374463</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>364.6889741095395</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>364.6889741095395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>216.7758805271463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>216.7758805271463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X28" t="n">
-        <v>936.0662010112162</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.2736218676861</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,22 +6454,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108341</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229681</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506733</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083211</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649689</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350128</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184155</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986525</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771665</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025264</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859418</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862498</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045221</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010328</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>964.135741824786</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480309</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782176</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255132</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813792</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654899</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489053</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492133</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634157</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530668</v>
+        <v>964.135741824786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6935,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740469</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852603</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480309</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937957</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480087</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839949</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427933</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089922</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782176</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255131</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494605</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490132</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746024</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979765</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813792</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.599560616159</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571752</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.5343174013</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.225769654899</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489053</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492133</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634157</v>
+        <v>3665.346469829004</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530668</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025261</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859415</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862495</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010327</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.439203208485</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>345.5709532541244</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>177.3956315739451</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.231782352015</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.439203208485</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>38.86002301949938</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>139.9867284210654</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>5.322962533237813</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>200.1204209198109</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>145.3711861530849</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.13036728718571</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>158.6197364401707</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>112.0695782210725</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>8.800914757293725</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>9.476411694110823</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>14.45548819888833</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>6.164810986536992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>69.53707365501351</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637168.1412945077</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
@@ -26323,34 +26325,34 @@
         <v>782058.1194754174</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754173</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642843</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754173</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754177</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371242</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687074</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26444,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819117</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819121</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819115</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26473,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019503</v>
+        <v>-17418.05520019526</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.8240143495</v>
       </c>
       <c r="D6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629339</v>
+        <v>142736.149462934</v>
       </c>
       <c r="F6" t="n">
+        <v>667896.18593983</v>
+      </c>
+      <c r="G6" t="n">
+        <v>667896.1859398303</v>
+      </c>
+      <c r="H6" t="n">
+        <v>667896.1859398303</v>
+      </c>
+      <c r="I6" t="n">
         <v>667896.1859398304</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>491472.9667472375</v>
+      </c>
+      <c r="K6" t="n">
         <v>667896.1859398304</v>
       </c>
-      <c r="H6" t="n">
-        <v>667896.1859398305</v>
-      </c>
-      <c r="I6" t="n">
-        <v>667896.1859398305</v>
-      </c>
-      <c r="J6" t="n">
-        <v>491472.9667472371</v>
-      </c>
-      <c r="K6" t="n">
-        <v>624227.7571123553</v>
-      </c>
       <c r="L6" t="n">
-        <v>678733.2692160679</v>
+        <v>667896.1859398303</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822308</v>
+        <v>533095.170705993</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160681</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="O6" t="n">
-        <v>678733.2692160681</v>
+        <v>667896.1859398303</v>
       </c>
       <c r="P6" t="n">
         <v>667896.1859398304</v>
@@ -26692,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26759,22 +26761,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>179.3801951565207</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,10 +27435,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>48.37370161986377</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>117.6618280996875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>386.7246536524968</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>209.0342253879127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>220.028607440644</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.88622894632374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>30.376315819669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>25.16398464933161</v>
       </c>
       <c r="W10" t="n">
-        <v>213.9280417223792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.230850401199483e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.1318901296406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,13 +35503,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,16 +35740,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>245.953437951024</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,13 +36214,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520604</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.441731308613</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502433</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37086,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>373.6013019241296</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520611</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520604</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502433</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4294828.515388786</v>
+        <v>4287811.500497075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>304.8745447086562</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>144.5425776078364</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>27.05951636829814</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.83981377311385</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.60147206155803</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>369.3088179022125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>145.0450872985375</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>226.9736586744964</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274061</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.26009267756245</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>203.5330926723469</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.2425576766694</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.46423243228393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>127.9032618964203</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>158.4459063413341</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>157.0171567692668</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.1291651532065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>79.37675471252261</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>256.6047146313638</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.149526959219</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.149526959219</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="D2" t="n">
-        <v>1568.149526959219</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.361274360975</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>771.3753695713672</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>353.411561469554</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4363,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.149526959219</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1372.955922978507</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1003.993406038096</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>645.7277074313452</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>645.7277074313452</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>234.7418026417376</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1759.555763042629</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.416431066818</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.416431066818</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.150732460067</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>625.362479861823</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>618.4169791126195</v>
+        <v>426.9821918225993</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4531710108064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4531710108064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066818</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
         <v>498.8626623130036</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,34 +5026,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5080,13 +5080,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.7525386093388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.4010034395785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,22 +5296,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>982.3321745379599</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>982.3321745379599</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>727.647686332073</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1340.085404217832</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,22 +5737,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6420,16 +6420,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>825.9079295287855</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>597.9183786307682</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>964.135741824786</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>964.135741824786</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>517.7728799462201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>517.7728799462201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>3893.336020727022</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3665.346469829004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>345.5709532541244</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>177.3956315739451</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>720.4504516500522</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y46" t="n">
-        <v>492.4609007520348</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>116.9087390531959</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9867284210654</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>18.01446838604235</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>40.67825230693387</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.1204209198109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>158.6197364401707</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>112.0695782210725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>8.800914757293725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>9.476411694110823</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.45548819888833</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>69.53707365501351</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>29.91828370522722</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754173</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754177</v>
@@ -26355,7 +26355,7 @@
         <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26444,19 +26444,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019526</v>
+        <v>-17418.05520019503</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.149462934</v>
+        <v>141761.5582032125</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.18593983</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="G6" t="n">
-        <v>667896.1859398303</v>
+        <v>666921.5946801086</v>
       </c>
       <c r="H6" t="n">
-        <v>667896.1859398303</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="I6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="J6" t="n">
-        <v>491472.9667472375</v>
+        <v>490498.3754875157</v>
       </c>
       <c r="K6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="L6" t="n">
-        <v>667896.1859398303</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="M6" t="n">
-        <v>533095.170705993</v>
+        <v>532120.5794462715</v>
       </c>
       <c r="N6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="O6" t="n">
-        <v>667896.1859398303</v>
+        <v>666921.5946801086</v>
       </c>
       <c r="P6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801086</v>
       </c>
     </row>
   </sheetData>
@@ -26697,13 +26697,13 @@
         <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>49.80849691202673</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3801951565207</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>386.7246536524968</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>36.63858880169786</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>202.921526275033</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>44.47535211858246</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>6.88622894632374</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>25.16398464933161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.161664530469791e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.230850401199483e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>204.92177183827</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287811.500497075</v>
+        <v>4292750.763346108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1584,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532061</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>139.1537278750046</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>122.3137095599312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.37255160319397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>256.6047146313638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,31 +4494,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
         <v>598.0446400632119</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514074</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701565</v>
       </c>
       <c r="L12" t="n">
         <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5272,25 +5272,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823764</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514063</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,13 +5314,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,31 +5454,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,37 +5506,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286132</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
         <v>542.1367719529251</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6891,13 +6891,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>318.0096706038159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7201,7 +7201,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7256,22 +7256,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
         <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1925.508393158043</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376741</v>
+        <v>2205.04845837674</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158951</v>
+        <v>2410.070939158949</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7341,13 +7341,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,16 +7359,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>415.8104215925219</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>253.7371603504727</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720713</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>158.8724419039322</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.9087390531959</v>
+        <v>116.9087390531974</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>82.3938331833846</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>44.93311153869659</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.2121017489008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>29.91828370522722</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028584</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26322,13 +26322,13 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754181</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.119475418</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754177</v>
@@ -26340,19 +26340,19 @@
         <v>782058.1194754175</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.119475418</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754175</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.105656038021706e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26444,19 +26444,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687083</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019503</v>
+        <v>-17418.05520019526</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
@@ -26530,40 +26530,40 @@
         <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>141761.5582032125</v>
+        <v>142638.6903369619</v>
       </c>
       <c r="F6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138587</v>
       </c>
       <c r="G6" t="n">
-        <v>666921.5946801086</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="H6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138587</v>
       </c>
       <c r="I6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="J6" t="n">
-        <v>490498.3754875157</v>
+        <v>491375.5076212652</v>
       </c>
       <c r="K6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.726813858</v>
       </c>
       <c r="L6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="M6" t="n">
-        <v>532120.5794462715</v>
+        <v>532997.7115800214</v>
       </c>
       <c r="N6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="O6" t="n">
-        <v>666921.5946801086</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="P6" t="n">
-        <v>666921.5946801086</v>
+        <v>667798.726813858</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.882070047527132e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.882070047527132e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.882070047527132e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.882070047527132e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.882070047527132e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.161664530469791e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28104,13 +28104,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.775819848023107e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.012545449784425e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.169471064289421e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415056</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>365.965856835457</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37642,10 +37642,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.92177183827</v>
+        <v>204.9217718382714</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
